--- a/Data/Stormwaterexport_cfs.xlsx
+++ b/Data/Stormwaterexport_cfs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_4AB480A97D773D78B6F332151CC35944F734729B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95A272B-2D05-42C1-8515-97D58A5D2076}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51E3D54-1F92-459B-BE7D-9991FAE2605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16350" yWindow="465" windowWidth="31320" windowHeight="20535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -84,17 +82,23 @@
     <t>water level was too high to get a true measurement, some measurements are estimated.</t>
   </si>
   <si>
-    <t>10:25`</t>
+    <t>no time</t>
   </si>
   <si>
-    <t>no time</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,15 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="19" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,52 +275,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>9.08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>4.3499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>20.97</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1.66</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.87</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,52 +332,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.87</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2.13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>1.54</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2.82</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>2.98</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,55 +707,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8.06</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>2.72</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>2.48</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>10.65</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>26.65</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,55 +764,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>3.54</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>2.98</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>3.01</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>3.51</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>3.94</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,6 +1032,407 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7438757655293088E-2"/>
+                  <c:y val="-1.1930227471566097E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3743000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4584999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7A0-4746-AD14-2217CE4FE0D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2031712912"/>
+        <c:axId val="2031717072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2031712912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031717072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2031717072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031712912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1106,6 +1513,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1623,6 +2070,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2215,13 +3178,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0362B9-128B-40FE-8925-F0BD2EEFC34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2259,9 +3258,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2294,9 +3293,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2329,9 +3345,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2505,19 +3538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2540,96 +3574,94 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44936</v>
+        <v>43180</v>
       </c>
       <c r="B2" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>5.75</v>
+        <v>11.78</v>
       </c>
       <c r="E2">
-        <v>1.87</v>
+        <v>2.91</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44899</v>
+        <v>43906</v>
       </c>
       <c r="B3" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.48472222222222222</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>8.6199999999999992</v>
+        <v>0.68</v>
       </c>
       <c r="E3">
-        <v>2.29</v>
+        <v>1.48</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44899</v>
+        <v>43906</v>
       </c>
       <c r="B4" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8.73</v>
+        <v>7.87</v>
       </c>
       <c r="E4">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>44907</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.61</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5">
+        <v>1.93</v>
+      </c>
+      <c r="E5">
+        <v>2.72</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44907</v>
+        <v>44899</v>
       </c>
       <c r="B6" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>2.4</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="E6">
-        <v>1.73</v>
+        <v>2.29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44906</v>
+        <v>44899</v>
       </c>
       <c r="B7" s="2">
         <v>0.39583333333333331</v>
@@ -2638,493 +3670,581 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>4.3899999999999997</v>
+        <v>8.73</v>
       </c>
       <c r="E7">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44906</v>
       </c>
       <c r="B8" s="2">
-        <v>0.36458333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E8">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45323</v>
+        <v>44906</v>
       </c>
       <c r="B9" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>9.08</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>2.13</v>
+        <v>1.41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44907</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E10">
-        <v>1.54</v>
-      </c>
+      <c r="D10" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45341</v>
+        <v>44907</v>
       </c>
       <c r="B11" s="2">
-        <v>0.36944444444444446</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11">
-        <v>20.97</v>
+        <v>2.4</v>
       </c>
       <c r="E11">
-        <v>2.82</v>
+        <v>1.73</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45341</v>
+        <v>44936</v>
       </c>
       <c r="B12" s="2">
-        <v>0.40208333333333335</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1.66</v>
+        <v>5.75</v>
       </c>
       <c r="E12">
-        <v>2.98</v>
+        <v>1.87</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45342</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="2">
-        <v>0.38125000000000003</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>1.17</v>
+        <v>9.08</v>
       </c>
       <c r="E13">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44494</v>
+        <v>45328</v>
       </c>
       <c r="B14" s="2">
-        <v>0.46180555555555558</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>1.93</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E14">
-        <v>2.72</v>
+        <v>1.54</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43906</v>
+        <v>45341</v>
       </c>
       <c r="B15" s="2">
-        <v>0.48472222222222222</v>
+        <v>0.36944444444444446</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0.68</v>
+        <v>20.97</v>
       </c>
       <c r="E15">
-        <v>1.48</v>
+        <v>2.82</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43906</v>
+        <v>45341</v>
       </c>
       <c r="B16" s="2">
-        <v>0.45</v>
+        <v>0.40208333333333335</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>7.87</v>
+        <v>1.66</v>
       </c>
       <c r="E16">
-        <v>2.15</v>
+        <v>2.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43180</v>
+        <v>45342</v>
       </c>
       <c r="B17" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.38125000000000003</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>11.78</v>
+        <v>1.17</v>
       </c>
       <c r="E17">
-        <v>2.91</v>
+        <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44899</v>
+        <v>43109</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>8.06</v>
+        <v>13.7</v>
       </c>
       <c r="E18">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44899</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
+        <v>43509</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="E19">
-        <v>3.54</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F19">
+        <v>1.3743000000000001</v>
+      </c>
+      <c r="I19">
+        <f>E19-F19</f>
+        <v>0.88569999999999971</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44873</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
+        <v>43510</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.44444444444444442</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>3.2</v>
+        <v>1.42</v>
       </c>
       <c r="E20">
-        <v>3.08</v>
+        <v>2.95</v>
+      </c>
+      <c r="F20">
+        <v>2.4584999999999999</v>
+      </c>
+      <c r="H20">
+        <f>77/2.54</f>
+        <v>30.314960629921259</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I25" si="0">E20-F20</f>
+        <v>0.49150000000000027</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44873</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
+        <v>43907</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.40277777777777773</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>0.08</v>
-      </c>
-      <c r="E21">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
+        <v>1.82</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="F21">
+        <v>1.55</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44906</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.35416666666666669</v>
+        <v>44265</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.43402777777777773</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>2.72</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E22">
-        <v>2.98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F22">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1.2249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>44906</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>2.48</v>
-      </c>
-      <c r="E23">
-        <v>3.01</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45323</v>
+        <v>44544</v>
       </c>
       <c r="B24" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="E24">
-        <v>3.51</v>
+        <v>3.31</v>
+      </c>
+      <c r="F24">
+        <v>1.81</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45341</v>
+        <v>44558</v>
       </c>
       <c r="B25" s="2">
-        <v>0.38541666666666669</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>26.65</v>
+        <v>0.35</v>
       </c>
       <c r="E25">
-        <v>3.94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.98</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.34791666666666665</v>
+        <v>44873</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>23.18</v>
+        <v>3.2</v>
       </c>
       <c r="E26">
-        <v>3.94</v>
+        <v>3.08</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44544</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.45833333333333331</v>
+        <v>44873</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="E27">
-        <v>3.31</v>
-      </c>
-      <c r="F27">
-        <v>1.81</v>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I19:I25)</f>
+        <v>0.76602857142857139</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>44558</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>44899</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
-        <v>0.35</v>
-      </c>
-      <c r="E28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.98</v>
+      <c r="D28" s="8">
+        <v>8.06</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>44265</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>44899</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="E29">
-        <v>2.5299999999999998</v>
+      <c r="D29" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>44494</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>44906</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
-        <v>1.99</v>
-      </c>
-      <c r="E30">
-        <v>2.88</v>
+      <c r="D30" s="8">
+        <v>2.72</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>44906</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>1.82</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2.69</v>
+      <c r="D31" s="8">
+        <v>2.48</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3.01</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43510</v>
+        <v>45323</v>
       </c>
       <c r="B32" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32">
-        <v>1.42</v>
+        <v>10.65</v>
       </c>
       <c r="E32">
-        <v>2.95</v>
-      </c>
-      <c r="H32">
-        <f>77/2.54</f>
-        <v>30.314960629921259</v>
+        <v>3.51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43509</v>
+        <v>45341</v>
       </c>
       <c r="B33" s="2">
-        <v>0.5</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33">
-        <v>0.9</v>
+        <v>26.65</v>
       </c>
       <c r="E33">
-        <v>2.2599999999999998</v>
+        <v>3.94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+        <v>45341</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.34791666666666665</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>13.7</v>
+        <v>23.18</v>
       </c>
       <c r="E34">
-        <v>3.48</v>
+        <v>3.94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1.99</v>
+      </c>
+      <c r="E35">
+        <v>2.88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
-    <sortCondition ref="C2:C34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H34">
+    <sortCondition ref="C1:C34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
